--- a/REGULAR/RE-ENCODE/JORGE, CAROLINA.xlsx
+++ b/REGULAR/RE-ENCODE/JORGE, CAROLINA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D750D4-502E-4E30-BE8D-9A0FD611979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD8C970-0D82-4893-8429-6996B2E38A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>PERIOD</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1335,9 +1338,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A84" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <pane ySplit="3576" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1504,7 +1507,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.113</v>
+        <v>86.158000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1514,7 +1517,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>210.08499999999998</v>
+        <v>210.13</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1583,14 +1586,14 @@
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
-        <v>1.2050000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.2050000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
@@ -3998,7 +4001,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4092,6 +4095,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>88</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>27</v>
       </c>
@@ -4113,6 +4119,10 @@
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>296.28800000000001</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
